--- a/excel/finished/能介/三空压站运行记录表.xlsx
+++ b/excel/finished/能介/三空压站运行记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="ACS3_ACM_Main" sheetId="1" r:id="rId1"/>
@@ -1446,15 +1446,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="178" formatCode="_ \¥* #,##0.00_ ;_ \¥* \-#,##0.00_ ;_ \¥* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="177" formatCode="_ \¥* #,##0.00_ ;_ \¥* \-#,##0.00_ ;_ \¥* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1508,11 +1508,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="13"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1533,12 +1528,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1550,14 +1539,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1565,9 +1554,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1582,7 +1571,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1590,14 +1586,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1619,7 +1631,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1627,44 +1639,6 @@
     <font>
       <b/>
       <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1679,9 +1653,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1689,6 +1662,22 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1727,7 +1716,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1739,7 +1752,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1751,133 +1878,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1893,24 +1900,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="56">
     <border>
@@ -2520,11 +2509,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2554,6 +2541,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -2570,17 +2581,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2600,58 +2604,43 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="51" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="53" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2660,149 +2649,143 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="51" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="55" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="53" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="52" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="52" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="53" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="50" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="50" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="54" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="55" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="51" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="53" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="49" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="49" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="52" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="54" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2869,6 +2852,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -2894,7 +2883,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2905,287 +2894,287 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="65" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="63" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="65"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="65" applyFont="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="65" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="63"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="63" applyFont="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="63" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="65" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="63" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="65" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="63" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="65" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="63" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="7" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="7" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="11" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="11" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="12" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="12" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="13" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="13" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="14" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="14" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="15" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="15" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="16" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="16" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="17" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="17" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="7" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="7" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="18" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="18" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="19" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="19" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="20" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="20" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="21" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="21" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="65" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="63" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="65" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="63" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="65" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="63" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="65" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="63" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="65" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="63" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="65" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="63" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="28" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="28" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="29" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="29" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="30" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="30" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="31" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="31" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="22" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="22" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="27" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="27" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="32" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="32" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="33" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="33" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="65" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="63" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="65" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="63" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="34" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="34" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="65" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="63" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="4" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="65" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="63" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="65" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="63" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="65" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="63" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="3" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="3" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="35" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="35" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="7" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="7" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="37" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="37" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="38" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="38" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="39" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="39" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="14" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="14" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="40" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="40" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="41" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="41" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="65" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="63" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="65" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="63" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="43" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="43" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="44" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="44" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="45" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="45" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="46" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="46" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="47" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="47" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="25" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="25" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3196,9 +3185,9 @@
     <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
     <cellStyle name="输入" xfId="3" builtinId="20"/>
     <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="常规 3 2 3 2" xfId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
     <cellStyle name="常规 3 4 3" xfId="6"/>
-    <cellStyle name="千位分隔[0]" xfId="7" builtinId="6"/>
+    <cellStyle name="常规 3 2 3 2" xfId="7"/>
     <cellStyle name="40% - 强调文字颜色 3" xfId="8" builtinId="39"/>
     <cellStyle name="差" xfId="9" builtinId="27"/>
     <cellStyle name="千位分隔" xfId="10" builtinId="3"/>
@@ -3207,21 +3196,21 @@
     <cellStyle name="百分比" xfId="13" builtinId="5"/>
     <cellStyle name="常规 3 2 3 3" xfId="14"/>
     <cellStyle name="已访问的超链接" xfId="15" builtinId="9"/>
-    <cellStyle name="常规 6" xfId="16"/>
-    <cellStyle name="注释" xfId="17" builtinId="10"/>
+    <cellStyle name="注释" xfId="16" builtinId="10"/>
+    <cellStyle name="常规 6" xfId="17"/>
     <cellStyle name="60% - 强调文字颜色 2" xfId="18" builtinId="36"/>
     <cellStyle name="标题 4" xfId="19" builtinId="19"/>
     <cellStyle name="警告文本" xfId="20" builtinId="11"/>
-    <cellStyle name="常规 5 2" xfId="21"/>
-    <cellStyle name="标题" xfId="22" builtinId="15"/>
+    <cellStyle name="标题" xfId="21" builtinId="15"/>
+    <cellStyle name="常规 5 2" xfId="22"/>
     <cellStyle name="常规 3 2 2" xfId="23"/>
     <cellStyle name="解释性文本" xfId="24" builtinId="53"/>
     <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="常规 5 2 2" xfId="26"/>
-    <cellStyle name="标题 2" xfId="27" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="标题 2" xfId="26" builtinId="17"/>
+    <cellStyle name="常规 5 2 2" xfId="27"/>
+    <cellStyle name="标题 3" xfId="28" builtinId="18"/>
     <cellStyle name="常规 5 2 3" xfId="29"/>
-    <cellStyle name="标题 3" xfId="30" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="30" builtinId="32"/>
     <cellStyle name="60% - 强调文字颜色 4" xfId="31" builtinId="44"/>
     <cellStyle name="输出" xfId="32" builtinId="21"/>
     <cellStyle name="计算" xfId="33" builtinId="22"/>
@@ -3252,13 +3241,13 @@
     <cellStyle name="强调文字颜色 6" xfId="58" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="59" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="60" builtinId="52"/>
-    <cellStyle name="常规 3 2 4" xfId="61"/>
-    <cellStyle name="常规 14" xfId="62"/>
-    <cellStyle name="常规 3 2 2 3" xfId="63"/>
+    <cellStyle name="常规 14" xfId="61"/>
+    <cellStyle name="常规 3 2 4" xfId="62"/>
+    <cellStyle name="常规 2" xfId="63"/>
     <cellStyle name="常规 3 3 4" xfId="64"/>
-    <cellStyle name="常规 2" xfId="65"/>
-    <cellStyle name="常规 3 3 5" xfId="66"/>
-    <cellStyle name="常规 3" xfId="67"/>
+    <cellStyle name="常规 3 2 2 3" xfId="65"/>
+    <cellStyle name="常规 3" xfId="66"/>
+    <cellStyle name="常规 3 3 5" xfId="67"/>
     <cellStyle name="常规 3 2 2 2" xfId="68"/>
     <cellStyle name="常规 3 2 3" xfId="69"/>
     <cellStyle name="常规 3 2 4 2" xfId="70"/>
@@ -3586,8 +3575,8 @@
   <sheetPr/>
   <dimension ref="A1:EG32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32:E32"/>
+    <sheetView tabSelected="1" topLeftCell="BC1" workbookViewId="0">
+      <selection activeCell="BN3" sqref="BN$1:BS$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6333333333333" defaultRowHeight="13.5"/>
@@ -4643,29 +4632,29 @@
         <f>IF(_acsReport_day_each!BL2="","",_acsReport_day_each!BL2)</f>
         <v/>
       </c>
-      <c r="BN7" s="80">
-        <f>_acsReport_day_each!BM2:BP2</f>
-        <v>0</v>
-      </c>
-      <c r="BO7" s="80">
-        <f>_acsReport_day_each!BQ2</f>
-        <v>0</v>
-      </c>
-      <c r="BP7" s="80">
-        <f>IF(_acsReport_day_each!BR2&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BQ7" s="80">
-        <f>IF(_acsReport_day_each!BS2&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BR7" s="81">
-        <f>IF(_acsReport_day_each!BT2&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BS7" s="82">
-        <f>IF(_acsReport_day_each!BU2&gt;0,1,0)</f>
-        <v>0</v>
+      <c r="BN7" s="80" t="str">
+        <f>IF(_acsReport_day_each!BM2="","",_acsReport_day_each!BM2:BP2)</f>
+        <v/>
+      </c>
+      <c r="BO7" s="80" t="str">
+        <f>IF(_acsReport_day_each!BN2="","",_acsReport_day_each!BN2:BQ2)</f>
+        <v/>
+      </c>
+      <c r="BP7" s="80" t="str">
+        <f>IF(_acsReport_day_each!BO2="","",_acsReport_day_each!BO2:BR2)</f>
+        <v/>
+      </c>
+      <c r="BQ7" s="80" t="str">
+        <f>IF(_acsReport_day_each!BP2="","",_acsReport_day_each!BP2:BS2)</f>
+        <v/>
+      </c>
+      <c r="BR7" s="81" t="str">
+        <f>IF(_acsReport_day_each!BQ2="","",_acsReport_day_each!BQ2:BT2)</f>
+        <v/>
+      </c>
+      <c r="BS7" s="82" t="str">
+        <f>IF(_acsReport_day_each!BR2="","",_acsReport_day_each!BR2:BU2)</f>
+        <v/>
       </c>
       <c r="BT7" s="83" t="str">
         <f>IF(_acsReport_day_each!BM2="","",_acsReport_day_each!BM2)</f>
@@ -5009,29 +4998,29 @@
         <f>IF(_acsReport_day_each!BL3="","",_acsReport_day_each!BL3)</f>
         <v/>
       </c>
-      <c r="BN8" s="84">
-        <f>_acsReport_day_each!BM3:BP3</f>
-        <v>0</v>
-      </c>
-      <c r="BO8" s="84">
-        <f>_acsReport_day_each!BQ3</f>
-        <v>0</v>
-      </c>
-      <c r="BP8" s="80">
-        <f>IF(_acsReport_day_each!BR3&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BQ8" s="80">
-        <f>IF(_acsReport_day_each!BS3&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BR8" s="81">
-        <f>IF(_acsReport_day_each!BT3&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BS8" s="82">
-        <f>IF(_acsReport_day_each!BU3&gt;0,1,0)</f>
-        <v>0</v>
+      <c r="BN8" s="84" t="str">
+        <f>IF(_acsReport_day_each!BM3="","",_acsReport_day_each!BM3:BP3)</f>
+        <v/>
+      </c>
+      <c r="BO8" s="84" t="str">
+        <f>IF(_acsReport_day_each!BN3="","",_acsReport_day_each!BN3:BQ3)</f>
+        <v/>
+      </c>
+      <c r="BP8" s="80" t="str">
+        <f>IF(_acsReport_day_each!BO3="","",_acsReport_day_each!BO3:BR3)</f>
+        <v/>
+      </c>
+      <c r="BQ8" s="80" t="str">
+        <f>IF(_acsReport_day_each!BP3="","",_acsReport_day_each!BP3:BS3)</f>
+        <v/>
+      </c>
+      <c r="BR8" s="81" t="str">
+        <f>IF(_acsReport_day_each!BQ3="","",_acsReport_day_each!BQ3:BT3)</f>
+        <v/>
+      </c>
+      <c r="BS8" s="82" t="str">
+        <f>IF(_acsReport_day_each!BR3="","",_acsReport_day_each!BR3:BU3)</f>
+        <v/>
       </c>
       <c r="BT8" s="85" t="str">
         <f>IF(_acsReport_day_each!BM3="","",_acsReport_day_each!BM3)</f>
@@ -5305,29 +5294,29 @@
         <f>IF(_acsReport_day_each!BL4="","",_acsReport_day_each!BL4)</f>
         <v/>
       </c>
-      <c r="BN9" s="86">
-        <f>_acsReport_day_each!BM4:BP4</f>
-        <v>0</v>
-      </c>
-      <c r="BO9" s="84">
-        <f>_acsReport_day_each!BQ4</f>
-        <v>0</v>
-      </c>
-      <c r="BP9" s="80">
-        <f>IF(_acsReport_day_each!BR4&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BQ9" s="80">
-        <f>IF(_acsReport_day_each!BS4&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BR9" s="81">
-        <f>IF(_acsReport_day_each!BT4&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BS9" s="82">
-        <f>IF(_acsReport_day_each!BU4&gt;0,1,0)</f>
-        <v>0</v>
+      <c r="BN9" s="86" t="str">
+        <f>IF(_acsReport_day_each!BM4="","",_acsReport_day_each!BM4:BP4)</f>
+        <v/>
+      </c>
+      <c r="BO9" s="84" t="str">
+        <f>IF(_acsReport_day_each!BN4="","",_acsReport_day_each!BN4:BQ4)</f>
+        <v/>
+      </c>
+      <c r="BP9" s="80" t="str">
+        <f>IF(_acsReport_day_each!BO4="","",_acsReport_day_each!BO4:BR4)</f>
+        <v/>
+      </c>
+      <c r="BQ9" s="80" t="str">
+        <f>IF(_acsReport_day_each!BP4="","",_acsReport_day_each!BP4:BS4)</f>
+        <v/>
+      </c>
+      <c r="BR9" s="81" t="str">
+        <f>IF(_acsReport_day_each!BQ4="","",_acsReport_day_each!BQ4:BT4)</f>
+        <v/>
+      </c>
+      <c r="BS9" s="82" t="str">
+        <f>IF(_acsReport_day_each!BR4="","",_acsReport_day_each!BR4:BU4)</f>
+        <v/>
       </c>
       <c r="BT9" s="85" t="str">
         <f>IF(_acsReport_day_each!BM4="","",_acsReport_day_each!BM4)</f>
@@ -5601,29 +5590,29 @@
         <f>IF(_acsReport_day_each!BL5="","",_acsReport_day_each!BL5)</f>
         <v/>
       </c>
-      <c r="BN10" s="86">
-        <f>_acsReport_day_each!BM5:BP5</f>
-        <v>0</v>
-      </c>
-      <c r="BO10" s="84">
-        <f>_acsReport_day_each!BQ5</f>
-        <v>0</v>
-      </c>
-      <c r="BP10" s="80">
-        <f>IF(_acsReport_day_each!BR5&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BQ10" s="80">
-        <f>IF(_acsReport_day_each!BS5&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BR10" s="81">
-        <f>IF(_acsReport_day_each!BT5&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BS10" s="82">
-        <f>IF(_acsReport_day_each!BU5&gt;0,1,0)</f>
-        <v>0</v>
+      <c r="BN10" s="86" t="str">
+        <f>IF(_acsReport_day_each!BM5="","",_acsReport_day_each!BM5:BP5)</f>
+        <v/>
+      </c>
+      <c r="BO10" s="84" t="str">
+        <f>IF(_acsReport_day_each!BN5="","",_acsReport_day_each!BN5:BQ5)</f>
+        <v/>
+      </c>
+      <c r="BP10" s="80" t="str">
+        <f>IF(_acsReport_day_each!BO5="","",_acsReport_day_each!BO5:BR5)</f>
+        <v/>
+      </c>
+      <c r="BQ10" s="80" t="str">
+        <f>IF(_acsReport_day_each!BP5="","",_acsReport_day_each!BP5:BS5)</f>
+        <v/>
+      </c>
+      <c r="BR10" s="81" t="str">
+        <f>IF(_acsReport_day_each!BQ5="","",_acsReport_day_each!BQ5:BT5)</f>
+        <v/>
+      </c>
+      <c r="BS10" s="82" t="str">
+        <f>IF(_acsReport_day_each!BR5="","",_acsReport_day_each!BR5:BU5)</f>
+        <v/>
       </c>
       <c r="BT10" s="85" t="str">
         <f>IF(_acsReport_day_each!BM5="","",_acsReport_day_each!BM5)</f>
@@ -5897,29 +5886,29 @@
         <f>IF(_acsReport_day_each!BL6="","",_acsReport_day_each!BL6)</f>
         <v/>
       </c>
-      <c r="BN11" s="86">
-        <f>_acsReport_day_each!BM6:BP6</f>
-        <v>0</v>
-      </c>
-      <c r="BO11" s="84">
-        <f>_acsReport_day_each!BQ6</f>
-        <v>0</v>
-      </c>
-      <c r="BP11" s="80">
-        <f>IF(_acsReport_day_each!BR6&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BQ11" s="80">
-        <f>IF(_acsReport_day_each!BS6&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BR11" s="81">
-        <f>IF(_acsReport_day_each!BT6&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BS11" s="82">
-        <f>IF(_acsReport_day_each!BU6&gt;0,1,0)</f>
-        <v>0</v>
+      <c r="BN11" s="86" t="str">
+        <f>IF(_acsReport_day_each!BM6="","",_acsReport_day_each!BM6:BP6)</f>
+        <v/>
+      </c>
+      <c r="BO11" s="84" t="str">
+        <f>IF(_acsReport_day_each!BN6="","",_acsReport_day_each!BN6:BQ6)</f>
+        <v/>
+      </c>
+      <c r="BP11" s="80" t="str">
+        <f>IF(_acsReport_day_each!BO6="","",_acsReport_day_each!BO6:BR6)</f>
+        <v/>
+      </c>
+      <c r="BQ11" s="80" t="str">
+        <f>IF(_acsReport_day_each!BP6="","",_acsReport_day_each!BP6:BS6)</f>
+        <v/>
+      </c>
+      <c r="BR11" s="81" t="str">
+        <f>IF(_acsReport_day_each!BQ6="","",_acsReport_day_each!BQ6:BT6)</f>
+        <v/>
+      </c>
+      <c r="BS11" s="82" t="str">
+        <f>IF(_acsReport_day_each!BR6="","",_acsReport_day_each!BR6:BU6)</f>
+        <v/>
       </c>
       <c r="BT11" s="85" t="str">
         <f>IF(_acsReport_day_each!BM6="","",_acsReport_day_each!BM6)</f>
@@ -6193,29 +6182,29 @@
         <f>IF(_acsReport_day_each!BL7="","",_acsReport_day_each!BL7)</f>
         <v/>
       </c>
-      <c r="BN12" s="86">
-        <f>_acsReport_day_each!BM7:BP7</f>
-        <v>0</v>
-      </c>
-      <c r="BO12" s="84">
-        <f>_acsReport_day_each!BQ7</f>
-        <v>0</v>
-      </c>
-      <c r="BP12" s="80">
-        <f>IF(_acsReport_day_each!BR7&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BQ12" s="80">
-        <f>IF(_acsReport_day_each!BS7&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BR12" s="81">
-        <f>IF(_acsReport_day_each!BT7&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BS12" s="82">
-        <f>IF(_acsReport_day_each!BU7&gt;0,1,0)</f>
-        <v>0</v>
+      <c r="BN12" s="86" t="str">
+        <f>IF(_acsReport_day_each!BM7="","",_acsReport_day_each!BM7:BP7)</f>
+        <v/>
+      </c>
+      <c r="BO12" s="84" t="str">
+        <f>IF(_acsReport_day_each!BN7="","",_acsReport_day_each!BN7:BQ7)</f>
+        <v/>
+      </c>
+      <c r="BP12" s="80" t="str">
+        <f>IF(_acsReport_day_each!BO7="","",_acsReport_day_each!BO7:BR7)</f>
+        <v/>
+      </c>
+      <c r="BQ12" s="80" t="str">
+        <f>IF(_acsReport_day_each!BP7="","",_acsReport_day_each!BP7:BS7)</f>
+        <v/>
+      </c>
+      <c r="BR12" s="81" t="str">
+        <f>IF(_acsReport_day_each!BQ7="","",_acsReport_day_each!BQ7:BT7)</f>
+        <v/>
+      </c>
+      <c r="BS12" s="82" t="str">
+        <f>IF(_acsReport_day_each!BR7="","",_acsReport_day_each!BR7:BU7)</f>
+        <v/>
       </c>
       <c r="BT12" s="85" t="str">
         <f>IF(_acsReport_day_each!BM7="","",_acsReport_day_each!BM7)</f>
@@ -6489,29 +6478,29 @@
         <f>IF(_acsReport_day_each!BL8="","",_acsReport_day_each!BL8)</f>
         <v/>
       </c>
-      <c r="BN13" s="86">
-        <f>_acsReport_day_each!BM8:BP8</f>
-        <v>0</v>
-      </c>
-      <c r="BO13" s="84">
-        <f>_acsReport_day_each!BQ8</f>
-        <v>0</v>
-      </c>
-      <c r="BP13" s="80">
-        <f>IF(_acsReport_day_each!BR8&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BQ13" s="80">
-        <f>IF(_acsReport_day_each!BS8&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BR13" s="81">
-        <f>IF(_acsReport_day_each!BT8&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BS13" s="82">
-        <f>IF(_acsReport_day_each!BU8&gt;0,1,0)</f>
-        <v>0</v>
+      <c r="BN13" s="86" t="str">
+        <f>IF(_acsReport_day_each!BM8="","",_acsReport_day_each!BM8:BP8)</f>
+        <v/>
+      </c>
+      <c r="BO13" s="84" t="str">
+        <f>IF(_acsReport_day_each!BN8="","",_acsReport_day_each!BN8:BQ8)</f>
+        <v/>
+      </c>
+      <c r="BP13" s="80" t="str">
+        <f>IF(_acsReport_day_each!BO8="","",_acsReport_day_each!BO8:BR8)</f>
+        <v/>
+      </c>
+      <c r="BQ13" s="80" t="str">
+        <f>IF(_acsReport_day_each!BP8="","",_acsReport_day_each!BP8:BS8)</f>
+        <v/>
+      </c>
+      <c r="BR13" s="81" t="str">
+        <f>IF(_acsReport_day_each!BQ8="","",_acsReport_day_each!BQ8:BT8)</f>
+        <v/>
+      </c>
+      <c r="BS13" s="82" t="str">
+        <f>IF(_acsReport_day_each!BR8="","",_acsReport_day_each!BR8:BU8)</f>
+        <v/>
       </c>
       <c r="BT13" s="85" t="str">
         <f>IF(_acsReport_day_each!BM8="","",_acsReport_day_each!BM8)</f>
@@ -6785,29 +6774,29 @@
         <f>IF(_acsReport_day_each!BL9="","",_acsReport_day_each!BL9)</f>
         <v/>
       </c>
-      <c r="BN14" s="87">
-        <f>_acsReport_day_each!BM9:BP9</f>
-        <v>0</v>
-      </c>
-      <c r="BO14" s="84">
-        <f>_acsReport_day_each!BQ9</f>
-        <v>0</v>
-      </c>
-      <c r="BP14" s="80">
-        <f>IF(_acsReport_day_each!BR9&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BQ14" s="80">
-        <f>IF(_acsReport_day_each!BS9&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BR14" s="81">
-        <f>IF(_acsReport_day_each!BT9&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BS14" s="82">
-        <f>IF(_acsReport_day_each!BU9&gt;0,1,0)</f>
-        <v>0</v>
+      <c r="BN14" s="87" t="str">
+        <f>IF(_acsReport_day_each!BM9="","",_acsReport_day_each!BM9:BP9)</f>
+        <v/>
+      </c>
+      <c r="BO14" s="84" t="str">
+        <f>IF(_acsReport_day_each!BN9="","",_acsReport_day_each!BN9:BQ9)</f>
+        <v/>
+      </c>
+      <c r="BP14" s="80" t="str">
+        <f>IF(_acsReport_day_each!BO9="","",_acsReport_day_each!BO9:BR9)</f>
+        <v/>
+      </c>
+      <c r="BQ14" s="80" t="str">
+        <f>IF(_acsReport_day_each!BP9="","",_acsReport_day_each!BP9:BS9)</f>
+        <v/>
+      </c>
+      <c r="BR14" s="81" t="str">
+        <f>IF(_acsReport_day_each!BQ9="","",_acsReport_day_each!BQ9:BT9)</f>
+        <v/>
+      </c>
+      <c r="BS14" s="82" t="str">
+        <f>IF(_acsReport_day_each!BR9="","",_acsReport_day_each!BR9:BU9)</f>
+        <v/>
       </c>
       <c r="BT14" s="88" t="str">
         <f>IF(_acsReport_day_each!BM9="","",_acsReport_day_each!BM9)</f>
@@ -7081,29 +7070,29 @@
         <f>IF(_acsReport_day_each!BL10="","",_acsReport_day_each!BL10)</f>
         <v/>
       </c>
-      <c r="BN15" s="86">
-        <f>_acsReport_day_each!BM10:BP10</f>
-        <v>0</v>
-      </c>
-      <c r="BO15" s="84">
-        <f>_acsReport_day_each!BQ10</f>
-        <v>0</v>
-      </c>
-      <c r="BP15" s="80">
-        <f>IF(_acsReport_day_each!BR10&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BQ15" s="80">
-        <f>IF(_acsReport_day_each!BS10&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BR15" s="81">
-        <f>IF(_acsReport_day_each!BT10&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BS15" s="82">
-        <f>IF(_acsReport_day_each!BU10&gt;0,1,0)</f>
-        <v>0</v>
+      <c r="BN15" s="86" t="str">
+        <f>IF(_acsReport_day_each!BM10="","",_acsReport_day_each!BM10:BP10)</f>
+        <v/>
+      </c>
+      <c r="BO15" s="84" t="str">
+        <f>IF(_acsReport_day_each!BN10="","",_acsReport_day_each!BN10:BQ10)</f>
+        <v/>
+      </c>
+      <c r="BP15" s="80" t="str">
+        <f>IF(_acsReport_day_each!BO10="","",_acsReport_day_each!BO10:BR10)</f>
+        <v/>
+      </c>
+      <c r="BQ15" s="80" t="str">
+        <f>IF(_acsReport_day_each!BP10="","",_acsReport_day_each!BP10:BS10)</f>
+        <v/>
+      </c>
+      <c r="BR15" s="81" t="str">
+        <f>IF(_acsReport_day_each!BQ10="","",_acsReport_day_each!BQ10:BT10)</f>
+        <v/>
+      </c>
+      <c r="BS15" s="82" t="str">
+        <f>IF(_acsReport_day_each!BR10="","",_acsReport_day_each!BR10:BU10)</f>
+        <v/>
       </c>
       <c r="BT15" s="83" t="str">
         <f>IF(_acsReport_day_each!BM10="","",_acsReport_day_each!BM10)</f>
@@ -7377,29 +7366,29 @@
         <f>IF(_acsReport_day_each!BL11="","",_acsReport_day_each!BL11)</f>
         <v/>
       </c>
-      <c r="BN16" s="86">
-        <f>_acsReport_day_each!BM11:BP11</f>
-        <v>0</v>
-      </c>
-      <c r="BO16" s="84">
-        <f>_acsReport_day_each!BQ11</f>
-        <v>0</v>
-      </c>
-      <c r="BP16" s="80">
-        <f>IF(_acsReport_day_each!BR11&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BQ16" s="80">
-        <f>IF(_acsReport_day_each!BS11&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BR16" s="81">
-        <f>IF(_acsReport_day_each!BT11&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BS16" s="82">
-        <f>IF(_acsReport_day_each!BU11&gt;0,1,0)</f>
-        <v>0</v>
+      <c r="BN16" s="86" t="str">
+        <f>IF(_acsReport_day_each!BM11="","",_acsReport_day_each!BM11:BP11)</f>
+        <v/>
+      </c>
+      <c r="BO16" s="84" t="str">
+        <f>IF(_acsReport_day_each!BN11="","",_acsReport_day_each!BN11:BQ11)</f>
+        <v/>
+      </c>
+      <c r="BP16" s="80" t="str">
+        <f>IF(_acsReport_day_each!BO11="","",_acsReport_day_each!BO11:BR11)</f>
+        <v/>
+      </c>
+      <c r="BQ16" s="80" t="str">
+        <f>IF(_acsReport_day_each!BP11="","",_acsReport_day_each!BP11:BS11)</f>
+        <v/>
+      </c>
+      <c r="BR16" s="81" t="str">
+        <f>IF(_acsReport_day_each!BQ11="","",_acsReport_day_each!BQ11:BT11)</f>
+        <v/>
+      </c>
+      <c r="BS16" s="82" t="str">
+        <f>IF(_acsReport_day_each!BR11="","",_acsReport_day_each!BR11:BU11)</f>
+        <v/>
       </c>
       <c r="BT16" s="85" t="str">
         <f>IF(_acsReport_day_each!BM11="","",_acsReport_day_each!BM11)</f>
@@ -7673,29 +7662,29 @@
         <f>IF(_acsReport_day_each!BL12="","",_acsReport_day_each!BL12)</f>
         <v/>
       </c>
-      <c r="BN17" s="86">
-        <f>_acsReport_day_each!BM12:BP12</f>
-        <v>0</v>
-      </c>
-      <c r="BO17" s="84">
-        <f>_acsReport_day_each!BQ12</f>
-        <v>0</v>
-      </c>
-      <c r="BP17" s="80">
-        <f>IF(_acsReport_day_each!BR12&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BQ17" s="80">
-        <f>IF(_acsReport_day_each!BS12&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BR17" s="81">
-        <f>IF(_acsReport_day_each!BT12&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BS17" s="82">
-        <f>IF(_acsReport_day_each!BU12&gt;0,1,0)</f>
-        <v>0</v>
+      <c r="BN17" s="86" t="str">
+        <f>IF(_acsReport_day_each!BM12="","",_acsReport_day_each!BM12:BP12)</f>
+        <v/>
+      </c>
+      <c r="BO17" s="84" t="str">
+        <f>IF(_acsReport_day_each!BN12="","",_acsReport_day_each!BN12:BQ12)</f>
+        <v/>
+      </c>
+      <c r="BP17" s="80" t="str">
+        <f>IF(_acsReport_day_each!BO12="","",_acsReport_day_each!BO12:BR12)</f>
+        <v/>
+      </c>
+      <c r="BQ17" s="80" t="str">
+        <f>IF(_acsReport_day_each!BP12="","",_acsReport_day_each!BP12:BS12)</f>
+        <v/>
+      </c>
+      <c r="BR17" s="81" t="str">
+        <f>IF(_acsReport_day_each!BQ12="","",_acsReport_day_each!BQ12:BT12)</f>
+        <v/>
+      </c>
+      <c r="BS17" s="82" t="str">
+        <f>IF(_acsReport_day_each!BR12="","",_acsReport_day_each!BR12:BU12)</f>
+        <v/>
       </c>
       <c r="BT17" s="85" t="str">
         <f>IF(_acsReport_day_each!BM12="","",_acsReport_day_each!BM12)</f>
@@ -7969,29 +7958,29 @@
         <f>IF(_acsReport_day_each!BL13="","",_acsReport_day_each!BL13)</f>
         <v/>
       </c>
-      <c r="BN18" s="86">
-        <f>_acsReport_day_each!BM13:BP13</f>
-        <v>0</v>
-      </c>
-      <c r="BO18" s="84">
-        <f>_acsReport_day_each!BQ13</f>
-        <v>0</v>
-      </c>
-      <c r="BP18" s="80">
-        <f>IF(_acsReport_day_each!BR13&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BQ18" s="80">
-        <f>IF(_acsReport_day_each!BS13&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BR18" s="81">
-        <f>IF(_acsReport_day_each!BT13&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BS18" s="82">
-        <f>IF(_acsReport_day_each!BU13&gt;0,1,0)</f>
-        <v>0</v>
+      <c r="BN18" s="86" t="str">
+        <f>IF(_acsReport_day_each!BM13="","",_acsReport_day_each!BM13:BP13)</f>
+        <v/>
+      </c>
+      <c r="BO18" s="84" t="str">
+        <f>IF(_acsReport_day_each!BN13="","",_acsReport_day_each!BN13:BQ13)</f>
+        <v/>
+      </c>
+      <c r="BP18" s="80" t="str">
+        <f>IF(_acsReport_day_each!BO13="","",_acsReport_day_each!BO13:BR13)</f>
+        <v/>
+      </c>
+      <c r="BQ18" s="80" t="str">
+        <f>IF(_acsReport_day_each!BP13="","",_acsReport_day_each!BP13:BS13)</f>
+        <v/>
+      </c>
+      <c r="BR18" s="81" t="str">
+        <f>IF(_acsReport_day_each!BQ13="","",_acsReport_day_each!BQ13:BT13)</f>
+        <v/>
+      </c>
+      <c r="BS18" s="82" t="str">
+        <f>IF(_acsReport_day_each!BR13="","",_acsReport_day_each!BR13:BU13)</f>
+        <v/>
       </c>
       <c r="BT18" s="85" t="str">
         <f>IF(_acsReport_day_each!BM13="","",_acsReport_day_each!BM13)</f>
@@ -8265,29 +8254,29 @@
         <f>IF(_acsReport_day_each!BL14="","",_acsReport_day_each!BL14)</f>
         <v/>
       </c>
-      <c r="BN19" s="86">
-        <f>_acsReport_day_each!BM14:BP14</f>
-        <v>0</v>
-      </c>
-      <c r="BO19" s="84">
-        <f>_acsReport_day_each!BQ14</f>
-        <v>0</v>
-      </c>
-      <c r="BP19" s="80">
-        <f>IF(_acsReport_day_each!BR14&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BQ19" s="80">
-        <f>IF(_acsReport_day_each!BS14&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BR19" s="81">
-        <f>IF(_acsReport_day_each!BT14&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BS19" s="82">
-        <f>IF(_acsReport_day_each!BU14&gt;0,1,0)</f>
-        <v>0</v>
+      <c r="BN19" s="86" t="str">
+        <f>IF(_acsReport_day_each!BM14="","",_acsReport_day_each!BM14:BP14)</f>
+        <v/>
+      </c>
+      <c r="BO19" s="84" t="str">
+        <f>IF(_acsReport_day_each!BN14="","",_acsReport_day_each!BN14:BQ14)</f>
+        <v/>
+      </c>
+      <c r="BP19" s="80" t="str">
+        <f>IF(_acsReport_day_each!BO14="","",_acsReport_day_each!BO14:BR14)</f>
+        <v/>
+      </c>
+      <c r="BQ19" s="80" t="str">
+        <f>IF(_acsReport_day_each!BP14="","",_acsReport_day_each!BP14:BS14)</f>
+        <v/>
+      </c>
+      <c r="BR19" s="81" t="str">
+        <f>IF(_acsReport_day_each!BQ14="","",_acsReport_day_each!BQ14:BT14)</f>
+        <v/>
+      </c>
+      <c r="BS19" s="82" t="str">
+        <f>IF(_acsReport_day_each!BR14="","",_acsReport_day_each!BR14:BU14)</f>
+        <v/>
       </c>
       <c r="BT19" s="85" t="str">
         <f>IF(_acsReport_day_each!BM14="","",_acsReport_day_each!BM14)</f>
@@ -8561,29 +8550,29 @@
         <f>IF(_acsReport_day_each!BL15="","",_acsReport_day_each!BL15)</f>
         <v/>
       </c>
-      <c r="BN20" s="86">
-        <f>_acsReport_day_each!BM15:BP15</f>
-        <v>0</v>
-      </c>
-      <c r="BO20" s="84">
-        <f>_acsReport_day_each!BQ15</f>
-        <v>0</v>
-      </c>
-      <c r="BP20" s="80">
-        <f>IF(_acsReport_day_each!BR15&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BQ20" s="80">
-        <f>IF(_acsReport_day_each!BS15&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BR20" s="81">
-        <f>IF(_acsReport_day_each!BT15&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BS20" s="82">
-        <f>IF(_acsReport_day_each!BU15&gt;0,1,0)</f>
-        <v>0</v>
+      <c r="BN20" s="86" t="str">
+        <f>IF(_acsReport_day_each!BM15="","",_acsReport_day_each!BM15:BP15)</f>
+        <v/>
+      </c>
+      <c r="BO20" s="84" t="str">
+        <f>IF(_acsReport_day_each!BN15="","",_acsReport_day_each!BN15:BQ15)</f>
+        <v/>
+      </c>
+      <c r="BP20" s="80" t="str">
+        <f>IF(_acsReport_day_each!BO15="","",_acsReport_day_each!BO15:BR15)</f>
+        <v/>
+      </c>
+      <c r="BQ20" s="80" t="str">
+        <f>IF(_acsReport_day_each!BP15="","",_acsReport_day_each!BP15:BS15)</f>
+        <v/>
+      </c>
+      <c r="BR20" s="81" t="str">
+        <f>IF(_acsReport_day_each!BQ15="","",_acsReport_day_each!BQ15:BT15)</f>
+        <v/>
+      </c>
+      <c r="BS20" s="82" t="str">
+        <f>IF(_acsReport_day_each!BR15="","",_acsReport_day_each!BR15:BU15)</f>
+        <v/>
       </c>
       <c r="BT20" s="85" t="str">
         <f>IF(_acsReport_day_each!BM15="","",_acsReport_day_each!BM15)</f>
@@ -8857,29 +8846,29 @@
         <f>IF(_acsReport_day_each!BL16="","",_acsReport_day_each!BL16)</f>
         <v/>
       </c>
-      <c r="BN21" s="86">
-        <f>_acsReport_day_each!BM16:BP16</f>
-        <v>0</v>
-      </c>
-      <c r="BO21" s="84">
-        <f>_acsReport_day_each!BQ16</f>
-        <v>0</v>
-      </c>
-      <c r="BP21" s="80">
-        <f>IF(_acsReport_day_each!BR16&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BQ21" s="80">
-        <f>IF(_acsReport_day_each!BS16&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BR21" s="81">
-        <f>IF(_acsReport_day_each!BT16&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BS21" s="82">
-        <f>IF(_acsReport_day_each!BU16&gt;0,1,0)</f>
-        <v>0</v>
+      <c r="BN21" s="86" t="str">
+        <f>IF(_acsReport_day_each!BM16="","",_acsReport_day_each!BM16:BP16)</f>
+        <v/>
+      </c>
+      <c r="BO21" s="84" t="str">
+        <f>IF(_acsReport_day_each!BN16="","",_acsReport_day_each!BN16:BQ16)</f>
+        <v/>
+      </c>
+      <c r="BP21" s="80" t="str">
+        <f>IF(_acsReport_day_each!BO16="","",_acsReport_day_each!BO16:BR16)</f>
+        <v/>
+      </c>
+      <c r="BQ21" s="80" t="str">
+        <f>IF(_acsReport_day_each!BP16="","",_acsReport_day_each!BP16:BS16)</f>
+        <v/>
+      </c>
+      <c r="BR21" s="81" t="str">
+        <f>IF(_acsReport_day_each!BQ16="","",_acsReport_day_each!BQ16:BT16)</f>
+        <v/>
+      </c>
+      <c r="BS21" s="82" t="str">
+        <f>IF(_acsReport_day_each!BR16="","",_acsReport_day_each!BR16:BU16)</f>
+        <v/>
       </c>
       <c r="BT21" s="85" t="str">
         <f>IF(_acsReport_day_each!BM16="","",_acsReport_day_each!BM16)</f>
@@ -9153,29 +9142,29 @@
         <f>IF(_acsReport_day_each!BL17="","",_acsReport_day_each!BL17)</f>
         <v/>
       </c>
-      <c r="BN22" s="87">
-        <f>_acsReport_day_each!BM17:BP17</f>
-        <v>0</v>
-      </c>
-      <c r="BO22" s="84">
-        <f>_acsReport_day_each!BQ17</f>
-        <v>0</v>
-      </c>
-      <c r="BP22" s="80">
-        <f>IF(_acsReport_day_each!BR17&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BQ22" s="80">
-        <f>IF(_acsReport_day_each!BS17&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BR22" s="81">
-        <f>IF(_acsReport_day_each!BT17&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BS22" s="82">
-        <f>IF(_acsReport_day_each!BU17&gt;0,1,0)</f>
-        <v>0</v>
+      <c r="BN22" s="87" t="str">
+        <f>IF(_acsReport_day_each!BM17="","",_acsReport_day_each!BM17:BP17)</f>
+        <v/>
+      </c>
+      <c r="BO22" s="84" t="str">
+        <f>IF(_acsReport_day_each!BN17="","",_acsReport_day_each!BN17:BQ17)</f>
+        <v/>
+      </c>
+      <c r="BP22" s="80" t="str">
+        <f>IF(_acsReport_day_each!BO17="","",_acsReport_day_each!BO17:BR17)</f>
+        <v/>
+      </c>
+      <c r="BQ22" s="80" t="str">
+        <f>IF(_acsReport_day_each!BP17="","",_acsReport_day_each!BP17:BS17)</f>
+        <v/>
+      </c>
+      <c r="BR22" s="81" t="str">
+        <f>IF(_acsReport_day_each!BQ17="","",_acsReport_day_each!BQ17:BT17)</f>
+        <v/>
+      </c>
+      <c r="BS22" s="82" t="str">
+        <f>IF(_acsReport_day_each!BR17="","",_acsReport_day_each!BR17:BU17)</f>
+        <v/>
       </c>
       <c r="BT22" s="88" t="str">
         <f>IF(_acsReport_day_each!BM17="","",_acsReport_day_each!BM17)</f>
@@ -9449,29 +9438,29 @@
         <f>IF(_acsReport_day_each!BL18="","",_acsReport_day_each!BL18)</f>
         <v/>
       </c>
-      <c r="BN23" s="86">
-        <f>_acsReport_day_each!BM18:BP18</f>
-        <v>0</v>
-      </c>
-      <c r="BO23" s="84">
-        <f>_acsReport_day_each!BQ18</f>
-        <v>0</v>
-      </c>
-      <c r="BP23" s="80">
-        <f>IF(_acsReport_day_each!BR18&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BQ23" s="80">
-        <f>IF(_acsReport_day_each!BS18&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BR23" s="81">
-        <f>IF(_acsReport_day_each!BT18&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BS23" s="82">
-        <f>IF(_acsReport_day_each!BU18&gt;0,1,0)</f>
-        <v>0</v>
+      <c r="BN23" s="86" t="str">
+        <f>IF(_acsReport_day_each!BM18="","",_acsReport_day_each!BM18:BP18)</f>
+        <v/>
+      </c>
+      <c r="BO23" s="84" t="str">
+        <f>IF(_acsReport_day_each!BN18="","",_acsReport_day_each!BN18:BQ18)</f>
+        <v/>
+      </c>
+      <c r="BP23" s="80" t="str">
+        <f>IF(_acsReport_day_each!BO18="","",_acsReport_day_each!BO18:BR18)</f>
+        <v/>
+      </c>
+      <c r="BQ23" s="80" t="str">
+        <f>IF(_acsReport_day_each!BP18="","",_acsReport_day_each!BP18:BS18)</f>
+        <v/>
+      </c>
+      <c r="BR23" s="81" t="str">
+        <f>IF(_acsReport_day_each!BQ18="","",_acsReport_day_each!BQ18:BT18)</f>
+        <v/>
+      </c>
+      <c r="BS23" s="82" t="str">
+        <f>IF(_acsReport_day_each!BR18="","",_acsReport_day_each!BR18:BU18)</f>
+        <v/>
       </c>
       <c r="BT23" s="89" t="str">
         <f>IF(_acsReport_day_each!BM18="","",_acsReport_day_each!BM18)</f>
@@ -9745,29 +9734,29 @@
         <f>IF(_acsReport_day_each!BL19="","",_acsReport_day_each!BL19)</f>
         <v/>
       </c>
-      <c r="BN24" s="86">
-        <f>_acsReport_day_each!BM19:BP19</f>
-        <v>0</v>
-      </c>
-      <c r="BO24" s="84">
-        <f>_acsReport_day_each!BQ19</f>
-        <v>0</v>
-      </c>
-      <c r="BP24" s="80">
-        <f>IF(_acsReport_day_each!BR19&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BQ24" s="80">
-        <f>IF(_acsReport_day_each!BS19&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BR24" s="81">
-        <f>IF(_acsReport_day_each!BT19&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BS24" s="82">
-        <f>IF(_acsReport_day_each!BU19&gt;0,1,0)</f>
-        <v>0</v>
+      <c r="BN24" s="86" t="str">
+        <f>IF(_acsReport_day_each!BM19="","",_acsReport_day_each!BM19:BP19)</f>
+        <v/>
+      </c>
+      <c r="BO24" s="84" t="str">
+        <f>IF(_acsReport_day_each!BN19="","",_acsReport_day_each!BN19:BQ19)</f>
+        <v/>
+      </c>
+      <c r="BP24" s="80" t="str">
+        <f>IF(_acsReport_day_each!BO19="","",_acsReport_day_each!BO19:BR19)</f>
+        <v/>
+      </c>
+      <c r="BQ24" s="80" t="str">
+        <f>IF(_acsReport_day_each!BP19="","",_acsReport_day_each!BP19:BS19)</f>
+        <v/>
+      </c>
+      <c r="BR24" s="81" t="str">
+        <f>IF(_acsReport_day_each!BQ19="","",_acsReport_day_each!BQ19:BT19)</f>
+        <v/>
+      </c>
+      <c r="BS24" s="82" t="str">
+        <f>IF(_acsReport_day_each!BR19="","",_acsReport_day_each!BR19:BU19)</f>
+        <v/>
       </c>
       <c r="BT24" s="85" t="str">
         <f>IF(_acsReport_day_each!BM19="","",_acsReport_day_each!BM19)</f>
@@ -10041,29 +10030,29 @@
         <f>IF(_acsReport_day_each!BL20="","",_acsReport_day_each!BL20)</f>
         <v/>
       </c>
-      <c r="BN25" s="86">
-        <f>_acsReport_day_each!BM20:BP20</f>
-        <v>0</v>
-      </c>
-      <c r="BO25" s="84">
-        <f>_acsReport_day_each!BQ20</f>
-        <v>0</v>
-      </c>
-      <c r="BP25" s="80">
-        <f>IF(_acsReport_day_each!BR20&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BQ25" s="80">
-        <f>IF(_acsReport_day_each!BS20&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BR25" s="81">
-        <f>IF(_acsReport_day_each!BT20&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BS25" s="82">
-        <f>IF(_acsReport_day_each!BU20&gt;0,1,0)</f>
-        <v>0</v>
+      <c r="BN25" s="86" t="str">
+        <f>IF(_acsReport_day_each!BM20="","",_acsReport_day_each!BM20:BP20)</f>
+        <v/>
+      </c>
+      <c r="BO25" s="84" t="str">
+        <f>IF(_acsReport_day_each!BN20="","",_acsReport_day_each!BN20:BQ20)</f>
+        <v/>
+      </c>
+      <c r="BP25" s="80" t="str">
+        <f>IF(_acsReport_day_each!BO20="","",_acsReport_day_each!BO20:BR20)</f>
+        <v/>
+      </c>
+      <c r="BQ25" s="80" t="str">
+        <f>IF(_acsReport_day_each!BP20="","",_acsReport_day_each!BP20:BS20)</f>
+        <v/>
+      </c>
+      <c r="BR25" s="81" t="str">
+        <f>IF(_acsReport_day_each!BQ20="","",_acsReport_day_each!BQ20:BT20)</f>
+        <v/>
+      </c>
+      <c r="BS25" s="82" t="str">
+        <f>IF(_acsReport_day_each!BR20="","",_acsReport_day_each!BR20:BU20)</f>
+        <v/>
       </c>
       <c r="BT25" s="85" t="str">
         <f>IF(_acsReport_day_each!BM20="","",_acsReport_day_each!BM20)</f>
@@ -10337,29 +10326,29 @@
         <f>IF(_acsReport_day_each!BL21="","",_acsReport_day_each!BL21)</f>
         <v/>
       </c>
-      <c r="BN26" s="86">
-        <f>_acsReport_day_each!BM21:BP21</f>
-        <v>0</v>
-      </c>
-      <c r="BO26" s="84">
-        <f>_acsReport_day_each!BQ21</f>
-        <v>0</v>
-      </c>
-      <c r="BP26" s="80">
-        <f>IF(_acsReport_day_each!BR21&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BQ26" s="80">
-        <f>IF(_acsReport_day_each!BS21&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BR26" s="81">
-        <f>IF(_acsReport_day_each!BT21&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BS26" s="82">
-        <f>IF(_acsReport_day_each!BU21&gt;0,1,0)</f>
-        <v>0</v>
+      <c r="BN26" s="86" t="str">
+        <f>IF(_acsReport_day_each!BM21="","",_acsReport_day_each!BM21:BP21)</f>
+        <v/>
+      </c>
+      <c r="BO26" s="84" t="str">
+        <f>IF(_acsReport_day_each!BN21="","",_acsReport_day_each!BN21:BQ21)</f>
+        <v/>
+      </c>
+      <c r="BP26" s="80" t="str">
+        <f>IF(_acsReport_day_each!BO21="","",_acsReport_day_each!BO21:BR21)</f>
+        <v/>
+      </c>
+      <c r="BQ26" s="80" t="str">
+        <f>IF(_acsReport_day_each!BP21="","",_acsReport_day_each!BP21:BS21)</f>
+        <v/>
+      </c>
+      <c r="BR26" s="81" t="str">
+        <f>IF(_acsReport_day_each!BQ21="","",_acsReport_day_each!BQ21:BT21)</f>
+        <v/>
+      </c>
+      <c r="BS26" s="82" t="str">
+        <f>IF(_acsReport_day_each!BR21="","",_acsReport_day_each!BR21:BU21)</f>
+        <v/>
       </c>
       <c r="BT26" s="85" t="str">
         <f>IF(_acsReport_day_each!BM21="","",_acsReport_day_each!BM21)</f>
@@ -10633,29 +10622,29 @@
         <f>IF(_acsReport_day_each!BL22="","",_acsReport_day_each!BL22)</f>
         <v/>
       </c>
-      <c r="BN27" s="86">
-        <f>_acsReport_day_each!BM22:BP22</f>
-        <v>0</v>
-      </c>
-      <c r="BO27" s="84">
-        <f>_acsReport_day_each!BQ22</f>
-        <v>0</v>
-      </c>
-      <c r="BP27" s="80">
-        <f>IF(_acsReport_day_each!BR22&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BQ27" s="80">
-        <f>IF(_acsReport_day_each!BS22&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BR27" s="81">
-        <f>IF(_acsReport_day_each!BT22&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BS27" s="82">
-        <f>IF(_acsReport_day_each!BU22&gt;0,1,0)</f>
-        <v>0</v>
+      <c r="BN27" s="86" t="str">
+        <f>IF(_acsReport_day_each!BM22="","",_acsReport_day_each!BM22:BP22)</f>
+        <v/>
+      </c>
+      <c r="BO27" s="84" t="str">
+        <f>IF(_acsReport_day_each!BN22="","",_acsReport_day_each!BN22:BQ22)</f>
+        <v/>
+      </c>
+      <c r="BP27" s="80" t="str">
+        <f>IF(_acsReport_day_each!BO22="","",_acsReport_day_each!BO22:BR22)</f>
+        <v/>
+      </c>
+      <c r="BQ27" s="80" t="str">
+        <f>IF(_acsReport_day_each!BP22="","",_acsReport_day_each!BP22:BS22)</f>
+        <v/>
+      </c>
+      <c r="BR27" s="81" t="str">
+        <f>IF(_acsReport_day_each!BQ22="","",_acsReport_day_each!BQ22:BT22)</f>
+        <v/>
+      </c>
+      <c r="BS27" s="82" t="str">
+        <f>IF(_acsReport_day_each!BR22="","",_acsReport_day_each!BR22:BU22)</f>
+        <v/>
       </c>
       <c r="BT27" s="85" t="str">
         <f>IF(_acsReport_day_each!BM22="","",_acsReport_day_each!BM22)</f>
@@ -10929,29 +10918,29 @@
         <f>IF(_acsReport_day_each!BL23="","",_acsReport_day_each!BL23)</f>
         <v/>
       </c>
-      <c r="BN28" s="86">
-        <f>_acsReport_day_each!BM23:BP23</f>
-        <v>0</v>
-      </c>
-      <c r="BO28" s="84">
-        <f>_acsReport_day_each!BQ23</f>
-        <v>0</v>
-      </c>
-      <c r="BP28" s="80">
-        <f>IF(_acsReport_day_each!BR23&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BQ28" s="80">
-        <f>IF(_acsReport_day_each!BS23&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BR28" s="81">
-        <f>IF(_acsReport_day_each!BT23&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BS28" s="82">
-        <f>IF(_acsReport_day_each!BU23&gt;0,1,0)</f>
-        <v>0</v>
+      <c r="BN28" s="86" t="str">
+        <f>IF(_acsReport_day_each!BM23="","",_acsReport_day_each!BM23:BP23)</f>
+        <v/>
+      </c>
+      <c r="BO28" s="84" t="str">
+        <f>IF(_acsReport_day_each!BN23="","",_acsReport_day_each!BN23:BQ23)</f>
+        <v/>
+      </c>
+      <c r="BP28" s="80" t="str">
+        <f>IF(_acsReport_day_each!BO23="","",_acsReport_day_each!BO23:BR23)</f>
+        <v/>
+      </c>
+      <c r="BQ28" s="80" t="str">
+        <f>IF(_acsReport_day_each!BP23="","",_acsReport_day_each!BP23:BS23)</f>
+        <v/>
+      </c>
+      <c r="BR28" s="81" t="str">
+        <f>IF(_acsReport_day_each!BQ23="","",_acsReport_day_each!BQ23:BT23)</f>
+        <v/>
+      </c>
+      <c r="BS28" s="82" t="str">
+        <f>IF(_acsReport_day_each!BR23="","",_acsReport_day_each!BR23:BU23)</f>
+        <v/>
       </c>
       <c r="BT28" s="85" t="str">
         <f>IF(_acsReport_day_each!BM23="","",_acsReport_day_each!BM23)</f>
@@ -11225,29 +11214,29 @@
         <f>IF(_acsReport_day_each!BL24="","",_acsReport_day_each!BL24)</f>
         <v/>
       </c>
-      <c r="BN29" s="86">
-        <f>_acsReport_day_each!BM24:BP24</f>
-        <v>0</v>
-      </c>
-      <c r="BO29" s="84">
-        <f>_acsReport_day_each!BQ24</f>
-        <v>0</v>
-      </c>
-      <c r="BP29" s="80">
-        <f>IF(_acsReport_day_each!BR24&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BQ29" s="80">
-        <f>IF(_acsReport_day_each!BS24&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BR29" s="81">
-        <f>IF(_acsReport_day_each!BT24&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BS29" s="82">
-        <f>IF(_acsReport_day_each!BU24&gt;0,1,0)</f>
-        <v>0</v>
+      <c r="BN29" s="86" t="str">
+        <f>IF(_acsReport_day_each!BM24="","",_acsReport_day_each!BM24:BP24)</f>
+        <v/>
+      </c>
+      <c r="BO29" s="84" t="str">
+        <f>IF(_acsReport_day_each!BN24="","",_acsReport_day_each!BN24:BQ24)</f>
+        <v/>
+      </c>
+      <c r="BP29" s="80" t="str">
+        <f>IF(_acsReport_day_each!BO24="","",_acsReport_day_each!BO24:BR24)</f>
+        <v/>
+      </c>
+      <c r="BQ29" s="80" t="str">
+        <f>IF(_acsReport_day_each!BP24="","",_acsReport_day_each!BP24:BS24)</f>
+        <v/>
+      </c>
+      <c r="BR29" s="81" t="str">
+        <f>IF(_acsReport_day_each!BQ24="","",_acsReport_day_each!BQ24:BT24)</f>
+        <v/>
+      </c>
+      <c r="BS29" s="82" t="str">
+        <f>IF(_acsReport_day_each!BR24="","",_acsReport_day_each!BR24:BU24)</f>
+        <v/>
       </c>
       <c r="BT29" s="85" t="str">
         <f>IF(_acsReport_day_each!BM24="","",_acsReport_day_each!BM24)</f>
@@ -11521,29 +11510,29 @@
         <f>IF(_acsReport_day_each!BL25="","",_acsReport_day_each!BL25)</f>
         <v/>
       </c>
-      <c r="BN30" s="90">
-        <f>_acsReport_day_each!BM25:BP25</f>
-        <v>0</v>
-      </c>
-      <c r="BO30" s="91">
-        <f>_acsReport_day_each!BQ25</f>
-        <v>0</v>
-      </c>
-      <c r="BP30" s="92">
-        <f>IF(_acsReport_day_each!BR25&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BQ30" s="92">
-        <f>IF(_acsReport_day_each!BS25&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BR30" s="93">
-        <f>IF(_acsReport_day_each!BT25&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BS30" s="82">
-        <f>IF(_acsReport_day_each!BU25&gt;0,1,0)</f>
-        <v>0</v>
+      <c r="BN30" s="90" t="str">
+        <f>IF(_acsReport_day_each!BM25="","",_acsReport_day_each!BM25:BP25)</f>
+        <v/>
+      </c>
+      <c r="BO30" s="91" t="str">
+        <f>IF(_acsReport_day_each!BN25="","",_acsReport_day_each!BN25:BQ25)</f>
+        <v/>
+      </c>
+      <c r="BP30" s="92" t="str">
+        <f>IF(_acsReport_day_each!BO25="","",_acsReport_day_each!BO25:BR25)</f>
+        <v/>
+      </c>
+      <c r="BQ30" s="92" t="str">
+        <f>IF(_acsReport_day_each!BP25="","",_acsReport_day_each!BP25:BS25)</f>
+        <v/>
+      </c>
+      <c r="BR30" s="93" t="str">
+        <f>IF(_acsReport_day_each!BQ25="","",_acsReport_day_each!BQ25:BT25)</f>
+        <v/>
+      </c>
+      <c r="BS30" s="82" t="str">
+        <f>IF(_acsReport_day_each!BR25="","",_acsReport_day_each!BR25:BU25)</f>
+        <v/>
       </c>
       <c r="BT30" s="88" t="str">
         <f>IF(_acsReport_day_each!BM25="","",_acsReport_day_each!BM25)</f>

--- a/excel/finished/能介/三空压站运行记录表.xlsx
+++ b/excel/finished/能介/三空压站运行记录表.xlsx
@@ -1445,16 +1445,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
+  <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="177" formatCode="_ \¥* #,##0.00_ ;_ \¥* \-#,##0.00_ ;_ \¥* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1539,16 +1538,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1556,13 +1547,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1577,43 +1561,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1643,23 +1591,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1676,7 +1607,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1684,7 +1622,61 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1723,13 +1715,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1747,7 +1805,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1759,73 +1877,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1837,73 +1889,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2518,17 +2510,40 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2548,15 +2563,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2568,24 +2574,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2605,13 +2593,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2621,277 +2613,277 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="49" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="52" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="53" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="51" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="50" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="51" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="51" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="50" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="53" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="54" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="54" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="49" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="52" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="48" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="55" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="50" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="52" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="55" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2905,135 +2897,135 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="65" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="63" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="65"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="65" applyFont="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="65" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="63"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="63" applyFont="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="63" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="65" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="63" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="65" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="63" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="65" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="63" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="7" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="7" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="11" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="11" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="12" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="12" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="13" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="14" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="14" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="15" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="15" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="16" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="16" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="17" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="17" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="7" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="7" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="18" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="18" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="19" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="19" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="20" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="20" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="21" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="21" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="65" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="63" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="65" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="63" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="65" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="63" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="65" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="63" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="65" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="63" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3041,147 +3033,147 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="65" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="63" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="28" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="28" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="29" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="29" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="30" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="30" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="31" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="31" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="22" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="22" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="27" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="27" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="32" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="32" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="33" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="33" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="65" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="63" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="65" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="63" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="34" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="34" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="65" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="63" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="65" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="63" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="65" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="63" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="65" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="63" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="3" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="3" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="35" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="35" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="7" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="7" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="36" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="36" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="37" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="37" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="38" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="38" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="39" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="39" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="40" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="40" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="65" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="63" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="65" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="63" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="41" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="41" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="42" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="42" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="43" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="43" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="45" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="45" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="46" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="46" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="47" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="47" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3192,9 +3184,9 @@
     <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
     <cellStyle name="输入" xfId="3" builtinId="20"/>
     <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="常规 3 2 3 2" xfId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
     <cellStyle name="常规 3 4 3" xfId="6"/>
-    <cellStyle name="千位分隔[0]" xfId="7" builtinId="6"/>
+    <cellStyle name="常规 3 2 3 2" xfId="7"/>
     <cellStyle name="40% - 强调文字颜色 3" xfId="8" builtinId="39"/>
     <cellStyle name="差" xfId="9" builtinId="27"/>
     <cellStyle name="千位分隔" xfId="10" builtinId="3"/>
@@ -3203,21 +3195,21 @@
     <cellStyle name="百分比" xfId="13" builtinId="5"/>
     <cellStyle name="常规 3 2 3 3" xfId="14"/>
     <cellStyle name="已访问的超链接" xfId="15" builtinId="9"/>
-    <cellStyle name="常规 6" xfId="16"/>
-    <cellStyle name="注释" xfId="17" builtinId="10"/>
+    <cellStyle name="注释" xfId="16" builtinId="10"/>
+    <cellStyle name="常规 6" xfId="17"/>
     <cellStyle name="60% - 强调文字颜色 2" xfId="18" builtinId="36"/>
     <cellStyle name="标题 4" xfId="19" builtinId="19"/>
     <cellStyle name="警告文本" xfId="20" builtinId="11"/>
-    <cellStyle name="常规 5 2" xfId="21"/>
-    <cellStyle name="标题" xfId="22" builtinId="15"/>
+    <cellStyle name="标题" xfId="21" builtinId="15"/>
+    <cellStyle name="常规 5 2" xfId="22"/>
     <cellStyle name="常规 3 2 2" xfId="23"/>
     <cellStyle name="解释性文本" xfId="24" builtinId="53"/>
     <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="常规 5 2 2" xfId="26"/>
-    <cellStyle name="标题 2" xfId="27" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="标题 2" xfId="26" builtinId="17"/>
+    <cellStyle name="常规 5 2 2" xfId="27"/>
+    <cellStyle name="标题 3" xfId="28" builtinId="18"/>
     <cellStyle name="常规 5 2 3" xfId="29"/>
-    <cellStyle name="标题 3" xfId="30" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="30" builtinId="32"/>
     <cellStyle name="60% - 强调文字颜色 4" xfId="31" builtinId="44"/>
     <cellStyle name="输出" xfId="32" builtinId="21"/>
     <cellStyle name="计算" xfId="33" builtinId="22"/>
@@ -3248,13 +3240,13 @@
     <cellStyle name="强调文字颜色 6" xfId="58" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="59" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="60" builtinId="52"/>
-    <cellStyle name="常规 3 2 4" xfId="61"/>
-    <cellStyle name="常规 14" xfId="62"/>
-    <cellStyle name="常规 3 2 2 3" xfId="63"/>
+    <cellStyle name="常规 14" xfId="61"/>
+    <cellStyle name="常规 3 2 4" xfId="62"/>
+    <cellStyle name="常规 2" xfId="63"/>
     <cellStyle name="常规 3 3 4" xfId="64"/>
-    <cellStyle name="常规 2" xfId="65"/>
-    <cellStyle name="常规 3 3 5" xfId="66"/>
-    <cellStyle name="常规 3" xfId="67"/>
+    <cellStyle name="常规 3 2 2 3" xfId="65"/>
+    <cellStyle name="常规 3" xfId="66"/>
+    <cellStyle name="常规 3 3 5" xfId="67"/>
     <cellStyle name="常规 3 2 2 2" xfId="68"/>
     <cellStyle name="常规 3 2 3" xfId="69"/>
     <cellStyle name="常规 3 2 4 2" xfId="70"/>
@@ -3582,8 +3574,8 @@
   <sheetPr/>
   <dimension ref="A1:EG32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BK1" workbookViewId="0">
-      <selection activeCell="BN3" sqref="BN$1:BS$1048576"/>
+    <sheetView tabSelected="1" topLeftCell="BE1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:BX30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6333333333333" defaultRowHeight="13.5"/>
